--- a/Live Documents/Timesheet.xlsx
+++ b/Live Documents/Timesheet.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="21520" windowHeight="14740" tabRatio="500"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="21525" windowHeight="13740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="DetroitEntrepreneur" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="130407" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="69">
   <si>
     <t>Team meeting</t>
   </si>
@@ -245,13 +245,16 @@
   <si>
     <t>Help team code</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Code website </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -335,7 +338,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -370,6 +373,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -711,33 +717,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="2"/>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24">
+    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
@@ -757,7 +763,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -767,7 +773,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>41681</v>
       </c>
@@ -787,7 +793,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="24">
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>41682</v>
       </c>
@@ -804,7 +810,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24">
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>41686</v>
       </c>
@@ -821,7 +827,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -831,7 +837,7 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>41688</v>
       </c>
@@ -851,7 +857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -868,7 +874,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>41693</v>
       </c>
@@ -885,7 +891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>41693</v>
       </c>
@@ -902,7 +908,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>21</v>
       </c>
@@ -912,7 +918,7 @@
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>41694</v>
       </c>
@@ -932,7 +938,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="24">
+    <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
         <v>31</v>
@@ -947,7 +953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>40</v>
       </c>
@@ -957,7 +963,7 @@
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="24">
+    <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>41708</v>
       </c>
@@ -977,7 +983,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="24">
+    <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>41708</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="24">
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>41714</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>48</v>
       </c>
@@ -1021,7 +1027,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>41716</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>41721</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>41721</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="36">
+    <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>41719</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="48">
+    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>41719</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
@@ -1116,7 +1122,7 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="10">
         <v>41723</v>
       </c>
@@ -1128,7 +1134,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="C28" s="2" t="s">
         <v>67</v>
@@ -1138,7 +1144,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
@@ -1154,12 +1160,12 @@
       </c>
       <c r="F29" s="4"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="24">
+    <row r="32" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
@@ -1179,7 +1185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1195,7 @@
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" s="2" customFormat="1">
+    <row r="34" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>41681</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="24">
+    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>41686</v>
       </c>
@@ -1227,7 +1233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>12</v>
       </c>
@@ -1237,7 +1243,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>41688</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="2" customFormat="1" ht="24">
+    <row r="38" spans="1:6" s="2" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>13</v>
       </c>
@@ -1274,7 +1280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="24">
+    <row r="39" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>13</v>
       </c>
@@ -1292,7 +1298,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>56</v>
       </c>
@@ -1302,7 +1308,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" s="2" customFormat="1">
+    <row r="41" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>41694</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41695</v>
       </c>
@@ -1340,7 +1346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>57</v>
       </c>
@@ -1350,7 +1356,7 @@
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>41708</v>
       </c>
@@ -1370,7 +1376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>41712</v>
       </c>
@@ -1387,7 +1393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>48</v>
       </c>
@@ -1397,7 +1403,7 @@
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>41716</v>
       </c>
@@ -1414,7 +1420,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="24">
+    <row r="48" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>41718</v>
       </c>
@@ -1431,9 +1437,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="C49" s="2" t="s">
-        <v>60</v>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C49" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D49">
         <v>5</v>
@@ -1445,7 +1451,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>62</v>
       </c>
@@ -1455,7 +1461,7 @@
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>41723</v>
       </c>
@@ -1467,7 +1473,7 @@
       </c>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="C52" s="2" t="s">
         <v>44</v>
@@ -1477,7 +1483,7 @@
       </c>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>7</v>
       </c>
@@ -1493,12 +1499,12 @@
       </c>
       <c r="F53" s="4"/>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="24">
+    <row r="56" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>33</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>2</v>
       </c>
@@ -1528,7 +1534,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>41681</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="24">
+    <row r="59" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>41686</v>
       </c>
@@ -1566,7 +1572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>12</v>
       </c>
@@ -1576,7 +1582,7 @@
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>41688</v>
       </c>
@@ -1596,7 +1602,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="24">
+    <row r="62" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1620,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>56</v>
       </c>
@@ -1624,7 +1630,7 @@
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1">
+    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>41694</v>
       </c>
@@ -1644,7 +1650,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" ht="24">
+    <row r="65" spans="1:6" s="1" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>41695</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>57</v>
       </c>
@@ -1671,7 +1677,7 @@
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>41708</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>41711</v>
       </c>
@@ -1708,7 +1714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>41713</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>48</v>
       </c>
@@ -1735,7 +1741,7 @@
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>41716</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="C72" s="2" t="s">
         <v>60</v>
@@ -1767,7 +1773,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>62</v>
       </c>
@@ -1777,7 +1783,7 @@
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="10">
         <v>41723</v>
       </c>
@@ -1789,7 +1795,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="10"/>
       <c r="C75" s="2" t="s">
         <v>44</v>
@@ -1799,7 +1805,7 @@
       </c>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>7</v>
       </c>
@@ -1815,12 +1821,12 @@
       </c>
       <c r="F76" s="4"/>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="24">
+    <row r="79" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>33</v>
       </c>
@@ -1840,7 +1846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
         <v>2</v>
       </c>
@@ -1850,7 +1856,7 @@
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>41681</v>
       </c>
@@ -1870,7 +1876,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="24">
+    <row r="82" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>41686</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>12</v>
       </c>
@@ -1898,7 +1904,7 @@
       <c r="E83" s="5"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>41688</v>
       </c>
@@ -1918,7 +1924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="24">
+    <row r="85" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>13</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="24">
+    <row r="86" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>13</v>
       </c>
@@ -1954,7 +1960,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
         <v>21</v>
       </c>
@@ -1964,7 +1970,7 @@
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>41694</v>
       </c>
@@ -1984,7 +1990,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="24">
+    <row r="89" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>41695</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>40</v>
       </c>
@@ -2012,7 +2018,7 @@
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>41711</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>41713</v>
       </c>
@@ -2049,7 +2055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>48</v>
       </c>
@@ -2059,7 +2065,7 @@
       <c r="E93" s="5"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>41716</v>
       </c>
@@ -2076,7 +2082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="24">
+    <row r="95" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="C95" s="2" t="s">
         <v>61</v>
@@ -2086,7 +2092,7 @@
       </c>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>62</v>
       </c>
@@ -2096,7 +2102,7 @@
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="10">
         <v>41723</v>
       </c>
@@ -2108,7 +2114,7 @@
       </c>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="24">
+    <row r="98" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="C98" s="2" t="s">
         <v>64</v>
@@ -2118,7 +2124,7 @@
       </c>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2140,7 @@
       </c>
       <c r="F99" s="4"/>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>11</v>
       </c>
